--- a/tests/testData/AutoMOFs05_Solution1.xlsx
+++ b/tests/testData/AutoMOFs05_Solution1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Code\DACHS\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Code\DACHS\tests\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C214ED34-2913-4BD8-90AD-7F5AEE540584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7AB876-0CC8-4DCB-964E-3B7F022688CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="30960" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,25 +70,25 @@
     <t>65.875</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2MIM002</t>
-  </si>
-  <si>
     <t>477.6</t>
   </si>
   <si>
-    <t xml:space="preserve"> MeOH002</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -</t>
   </si>
   <si>
     <t xml:space="preserve"> g</t>
   </si>
   <si>
-    <t xml:space="preserve"> Weight MeOH_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Weight 2MIM_2</t>
+    <t xml:space="preserve"> mass of MeOH_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mass of 2MIM_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2MIM_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MeOH_2</t>
   </si>
 </sst>
 </file>
@@ -493,15 +493,15 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -538,16 +538,16 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -564,13 +564,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -584,16 +584,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -610,13 +610,13 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -633,10 +633,10 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
